--- a/data/trans_dic/PCS12_SP_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6119444637068658</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6570442214633119</v>
+        <v>0.6570442214633118</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7577833208476935</v>
@@ -685,7 +685,7 @@
         <v>0.7260059965794969</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7908468591980079</v>
+        <v>0.7908468591980077</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6989004454637774</v>
@@ -697,7 +697,7 @@
         <v>0.6768112522327583</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7354357497131152</v>
+        <v>0.7354357497131154</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.594691909001699</v>
+        <v>0.5953160612749078</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6142178163558957</v>
+        <v>0.6146116941641776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5747909450674366</v>
+        <v>0.5786476538469867</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6104752983375117</v>
+        <v>0.6141083509047196</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7336965446069195</v>
+        <v>0.7336316197085885</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7133635792810086</v>
+        <v>0.7119347370672309</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6981205600318867</v>
+        <v>0.6993003831222242</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7653577967454022</v>
+        <v>0.7657819420664644</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6806533199609716</v>
+        <v>0.6790472883974156</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6785502078609081</v>
+        <v>0.6772797090567609</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.652958584168941</v>
+        <v>0.654871226754546</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7128822103391625</v>
+        <v>0.7147017651253794</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6524205409008789</v>
+        <v>0.6535995189669214</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6771907913061703</v>
+        <v>0.6787131440606252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6426945236725741</v>
+        <v>0.646044335550729</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.694487374503635</v>
+        <v>0.6971193583849435</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7786100601406357</v>
+        <v>0.7801962445690799</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7614025672061652</v>
+        <v>0.7598663609459649</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7533996290546433</v>
+        <v>0.7558361608393844</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8150260356901148</v>
+        <v>0.8146937195295197</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7178187257572453</v>
+        <v>0.7160630378920313</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7171667907855287</v>
+        <v>0.7171978248697325</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6984018140574081</v>
+        <v>0.6987218623797091</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.755991668103545</v>
+        <v>0.7569654644157163</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3160032241221692</v>
+        <v>0.3147794241840935</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.348578387810693</v>
+        <v>0.349909876661051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3256852495469912</v>
+        <v>0.3251636878280573</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3904174573023606</v>
+        <v>0.3900960537287044</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4304785755375174</v>
+        <v>0.4309272192085047</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4137461972188015</v>
+        <v>0.4118211100570681</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3717868252349246</v>
+        <v>0.3735520420863017</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4486643758415182</v>
+        <v>0.4485070669530124</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3763112563918731</v>
+        <v>0.3784261248936783</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.385790774352448</v>
+        <v>0.3854636442205738</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3539692743946264</v>
+        <v>0.3551801900558859</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4263845080573724</v>
+        <v>0.4260103153945376</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3602644130138173</v>
+        <v>0.363373250201255</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3949915173643821</v>
+        <v>0.3957633679160237</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3694999976077369</v>
+        <v>0.3661065157307996</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4370939374350991</v>
+        <v>0.4364788370999746</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4804024872143625</v>
+        <v>0.4805439708965175</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.462211393958275</v>
+        <v>0.4617113636415569</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.416254971317976</v>
+        <v>0.4181739065810672</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4888309325152945</v>
+        <v>0.4901469115893442</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4119981617752867</v>
+        <v>0.4147833019602092</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4196003693341592</v>
+        <v>0.4189059522086536</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3837822824375531</v>
+        <v>0.3849451488214879</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4564285505645776</v>
+        <v>0.4562598103573603</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2562879452271098</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.419718717063678</v>
+        <v>0.4197187170636781</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.4407603377220446</v>
@@ -957,7 +957,7 @@
         <v>0.3344221030663054</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4170290524377475</v>
+        <v>0.4170290524377476</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3794105828103698</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2857351016691786</v>
+        <v>0.2839342907216425</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2542430979911081</v>
+        <v>0.2518852505563018</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2181063520468677</v>
+        <v>0.2202439926056781</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3836042181913787</v>
+        <v>0.3840134643466951</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3918636178024746</v>
+        <v>0.3963365757103515</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.326513716297686</v>
+        <v>0.3289359227999773</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2937398333490883</v>
+        <v>0.2966826430630257</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3834093951836696</v>
+        <v>0.3845774902499138</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3485831202211546</v>
+        <v>0.3474830093282709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3021388439589232</v>
+        <v>0.3020673137109339</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2650542585102273</v>
+        <v>0.265718428173589</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3945615220663025</v>
+        <v>0.3936358504294989</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3707178807335232</v>
+        <v>0.3702578323651186</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3433605267958874</v>
+        <v>0.3454947163699835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2970678787698711</v>
+        <v>0.2970838569498443</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4608127795732722</v>
+        <v>0.4590438824560864</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4887285830063887</v>
+        <v>0.4890657915676691</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4234808190377973</v>
+        <v>0.4230008768695007</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3785076690267543</v>
+        <v>0.3837338076819249</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4499124056491176</v>
+        <v>0.4480382254917609</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4078139806838617</v>
+        <v>0.4089449711502456</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3665230337406317</v>
+        <v>0.3688762300505253</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3233070123409489</v>
+        <v>0.3252823495138933</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4461347941591726</v>
+        <v>0.4443892547671039</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4095674504047762</v>
+        <v>0.407989781229815</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4216476166780464</v>
+        <v>0.4222264811881958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3719288049102476</v>
+        <v>0.3724427626261028</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4354727346060471</v>
+        <v>0.4370945453219031</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5525015884179793</v>
+        <v>0.5538512447247268</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5247137713291776</v>
+        <v>0.5242657755560419</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4602447661089513</v>
+        <v>0.461141990717166</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5139739803945834</v>
+        <v>0.5131458985099361</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4866476978769131</v>
+        <v>0.4872718249871985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.48018769517646</v>
+        <v>0.4794352827724089</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4229102355074013</v>
+        <v>0.4238839529276703</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4804578871703305</v>
+        <v>0.4805880478261231</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4451812457700149</v>
+        <v>0.4424922896567671</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4564686674507482</v>
+        <v>0.4562099289583046</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.406937070104989</v>
+        <v>0.408187771632158</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4725535792669218</v>
+        <v>0.4757882592031183</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5872208854678156</v>
+        <v>0.5882591944745356</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5592512260472314</v>
+        <v>0.5592448870834623</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4952533673050571</v>
+        <v>0.4952712898657868</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5433172480673</v>
+        <v>0.5432581556679723</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5108434802487847</v>
+        <v>0.5114678552534737</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5037417961408081</v>
+        <v>0.5038251464040923</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4483347186417083</v>
+        <v>0.4489393907864155</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5048012188010729</v>
+        <v>0.5051286002445615</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>613557</v>
+        <v>614201</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>598643</v>
+        <v>599027</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>433592</v>
+        <v>436501</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>350162</v>
+        <v>352246</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>964894</v>
+        <v>964808</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>954336</v>
+        <v>952424</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>694393</v>
+        <v>695566</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>621066</v>
+        <v>621411</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1597381</v>
+        <v>1593612</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1569107</v>
+        <v>1566169</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1142029</v>
+        <v>1145374</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>987385</v>
+        <v>989906</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>673117</v>
+        <v>674334</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>660019</v>
+        <v>661503</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>484815</v>
+        <v>487342</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>398350</v>
+        <v>399860</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1023960</v>
+        <v>1026046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1018602</v>
+        <v>1016547</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>749376</v>
+        <v>751800</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>661371</v>
+        <v>661101</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1684602</v>
+        <v>1680482</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1658405</v>
+        <v>1658477</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1221510</v>
+        <v>1222069</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1047095</v>
+        <v>1048443</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>535124</v>
+        <v>533052</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>684593</v>
+        <v>687208</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>676248</v>
+        <v>675165</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>867104</v>
+        <v>866390</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>683459</v>
+        <v>684172</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>727284</v>
+        <v>723900</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>739224</v>
+        <v>742734</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>971547</v>
+        <v>971206</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1234710</v>
+        <v>1241649</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1435821</v>
+        <v>1434603</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1438774</v>
+        <v>1443696</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1870288</v>
+        <v>1868647</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>610076</v>
+        <v>615341</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>775746</v>
+        <v>777262</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>767224</v>
+        <v>760178</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>970771</v>
+        <v>969405</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>762722</v>
+        <v>762947</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>812477</v>
+        <v>811598</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>827640</v>
+        <v>831455</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1058524</v>
+        <v>1061374</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1351801</v>
+        <v>1360940</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1561652</v>
+        <v>1559067</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1559954</v>
+        <v>1564681</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2002073</v>
+        <v>2001333</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>157557</v>
+        <v>156564</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>122337</v>
+        <v>121202</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>119279</v>
+        <v>120448</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>272027</v>
+        <v>272317</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>186689</v>
+        <v>188820</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>149749</v>
+        <v>150860</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>161304</v>
+        <v>162920</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>280576</v>
+        <v>281430</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>358281</v>
+        <v>357150</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>283954</v>
+        <v>283887</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>290507</v>
+        <v>291235</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>568534</v>
+        <v>567200</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>204417</v>
+        <v>204163</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>165219</v>
+        <v>166245</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>162462</v>
+        <v>162471</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>326778</v>
+        <v>325524</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>232836</v>
+        <v>232997</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>194221</v>
+        <v>194001</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>207854</v>
+        <v>210724</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>329242</v>
+        <v>327870</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>419159</v>
+        <v>420322</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>344463</v>
+        <v>346675</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>354353</v>
+        <v>356518</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>642847</v>
+        <v>640332</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1341965</v>
+        <v>1336796</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1441943</v>
+        <v>1443923</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1256233</v>
+        <v>1257969</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1525762</v>
+        <v>1531444</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1867012</v>
+        <v>1871572</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1864953</v>
+        <v>1863361</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1625631</v>
+        <v>1628800</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1906167</v>
+        <v>1903095</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3239001</v>
+        <v>3243155</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3348835</v>
+        <v>3343587</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2922190</v>
+        <v>2928919</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3465242</v>
+        <v>3466181</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1458655</v>
+        <v>1449845</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1561023</v>
+        <v>1560139</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1374478</v>
+        <v>1378702</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1655682</v>
+        <v>1667015</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1984335</v>
+        <v>1987844</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1987707</v>
+        <v>1987685</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1749284</v>
+        <v>1749348</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2014991</v>
+        <v>2014772</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3400042</v>
+        <v>3404198</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>3513101</v>
+        <v>3513683</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>3097866</v>
+        <v>3102045</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>3640815</v>
+        <v>3643176</v>
       </c>
     </row>
     <row r="20">
